--- a/results.xlsx
+++ b/results.xlsx
@@ -709,22 +709,56 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B3" s="14" t="n"/>
-      <c r="C3" s="11" t="n"/>
-      <c r="D3" s="11" t="n"/>
-      <c r="E3" s="11" t="n"/>
-      <c r="F3" s="11" t="n"/>
-      <c r="G3" s="12" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="11" t="n"/>
-      <c r="J3" s="11" t="n"/>
-      <c r="K3" s="11" t="n"/>
-      <c r="L3" s="12" t="n"/>
-      <c r="M3" s="11" t="n"/>
-      <c r="N3" s="11" t="n"/>
-      <c r="O3" s="11" t="n"/>
-      <c r="P3" s="11" t="n"/>
-      <c r="Q3" s="12" t="n"/>
+      <c r="B3" s="14" t="inlineStr">
+        <is>
+          <t>Antoine</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.9445876433708902</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.8125877511498426</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0.8736297483838057</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0.8684119241192412</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>0.8711250624728417</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>0.7745868518757101</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0.9258196377075343</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0.8434779836112618</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0.8669647696476965</v>
+      </c>
+      <c r="L3" s="12" t="n">
+        <v>0.8605629302710303</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>0.7020241339042429</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>0.7367991012154019</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>0.7189913788807495</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>0.9694363143631436</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>0.8436164153771375</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -846,22 +880,56 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="11" t="n"/>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="11" t="n"/>
-      <c r="J6" s="11" t="n"/>
-      <c r="K6" s="11" t="n"/>
-      <c r="L6" s="12" t="n"/>
-      <c r="M6" s="11" t="n"/>
-      <c r="N6" s="11" t="n"/>
-      <c r="O6" s="11" t="n"/>
-      <c r="P6" s="11" t="n"/>
-      <c r="Q6" s="12" t="n"/>
+      <c r="B6" s="14" t="inlineStr">
+        <is>
+          <t>Kornum</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0.04181667811896954</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.9459673290827012</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>0.08009283613201172</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>0.4726599382880584</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>0.51945465413724</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0.9373079877112135</v>
+      </c>
+      <c r="I6" s="11" t="n">
+        <v>0.6020068201990003</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>0.7331389243181556</v>
+      </c>
+      <c r="K6" s="11" t="n">
+        <v>0.735098327994904</v>
+      </c>
+      <c r="L6" s="12" t="n">
+        <v>0.7720456892602398</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>0.776159130966512</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>0.1312761983561577</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>0.2245696563495202</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>0.6633943375001694</v>
+      </c>
+      <c r="Q6" s="12" t="n">
+        <v>0.7159987558443301</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -983,22 +1051,56 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="11" t="n"/>
-      <c r="F9" s="11" t="n"/>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="11" t="n"/>
-      <c r="J9" s="11" t="n"/>
-      <c r="K9" s="11" t="n"/>
-      <c r="L9" s="12" t="n"/>
-      <c r="M9" s="11" t="n"/>
-      <c r="N9" s="11" t="n"/>
-      <c r="O9" s="11" t="n"/>
-      <c r="P9" s="11" t="n"/>
-      <c r="Q9" s="12" t="n"/>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Alessandro</t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>0.4049524876614065</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>0.9280595619378563</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>0.5638659131666079</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <v>0.6678987755312864</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>0.6847671268131178</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>0.9282527722545861</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0.6739058863917113</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0.7808902119723109</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0.7830659818508751</v>
+      </c>
+      <c r="L9" s="12" t="n">
+        <v>0.8038538230552467</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0.9278331822302811</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>0.254067294483706</v>
+      </c>
+      <c r="O9" s="11" t="n">
+        <v>0.398903411896162</v>
+      </c>
+      <c r="P9" s="11" t="n">
+        <v>0.8506490362110877</v>
+      </c>
+      <c r="Q9" s="12" t="n">
+        <v>0.8870635582594886</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -1120,22 +1222,56 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="11" t="n"/>
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="11" t="n"/>
-      <c r="F12" s="11" t="n"/>
-      <c r="G12" s="12" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="11" t="n"/>
-      <c r="J12" s="11" t="n"/>
-      <c r="K12" s="11" t="n"/>
-      <c r="L12" s="12" t="n"/>
-      <c r="M12" s="11" t="n"/>
-      <c r="N12" s="11" t="n"/>
-      <c r="O12" s="11" t="n"/>
-      <c r="P12" s="11" t="n"/>
-      <c r="Q12" s="12" t="n"/>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Sebastian</t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>0.8015099121544706</v>
+      </c>
+      <c r="D12" s="11" t="n">
+        <v>0.9281690316001542</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>0.8602020411573856</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>0.8751511782900255</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>0.872214304425376</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0.9321983850268595</v>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>0.8391024330402781</v>
+      </c>
+      <c r="J12" s="11" t="n">
+        <v>0.883203942519274</v>
+      </c>
+      <c r="K12" s="11" t="n">
+        <v>0.8882747404879906</v>
+      </c>
+      <c r="L12" s="12" t="n">
+        <v>0.8920374924682558</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>0.8486070939260162</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>0.6935182881313759</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>0.7632641884028206</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>0.9644068407211269</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>0.9107057460147223</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1257,11 +1393,56 @@
           <t>Baseline</t>
         </is>
       </c>
-      <c r="B15" s="14" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="5" t="n"/>
-      <c r="L15" s="6" t="n"/>
-      <c r="Q15" s="6" t="n"/>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Maiken</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7772005909545823</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8910988470575378</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8302616841462173</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9105518740106779</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8699960350736543</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.970560737955249</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.905664766779109</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9369904227047083</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.91571647036729</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8931666371031688</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6942909760589319</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8084923868754021</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.7470524125631626</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.9657526896144663</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>0.8406853340853719</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">

--- a/results.xlsx
+++ b/results.xlsx
@@ -715,49 +715,49 @@
         </is>
       </c>
       <c r="C3" s="11" t="n">
-        <v>0.9445876433708902</v>
+        <v>0.9471764798577266</v>
       </c>
       <c r="D3" s="11" t="n">
-        <v>0.8125877511498426</v>
+        <v>0.7639096925297529</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.8736297483838057</v>
+        <v>0.8457286432160804</v>
       </c>
       <c r="F3" s="11" t="n">
-        <v>0.8684119241192412</v>
+        <v>0.8336043360433605</v>
       </c>
       <c r="G3" s="12" t="n">
-        <v>0.8711250624728417</v>
+        <v>0.8376494168422099</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>0.7745868518757101</v>
+        <v>0.6988674295217906</v>
       </c>
       <c r="I3" s="11" t="n">
-        <v>0.9258196377075343</v>
+        <v>0.921288290513834</v>
       </c>
       <c r="J3" s="11" t="n">
-        <v>0.8434779836112618</v>
+        <v>0.7948104882483401</v>
       </c>
       <c r="K3" s="11" t="n">
-        <v>0.8669647696476965</v>
+        <v>0.8330135501355014</v>
       </c>
       <c r="L3" s="12" t="n">
-        <v>0.8605629302710303</v>
+        <v>0.8237171518415761</v>
       </c>
       <c r="M3" s="11" t="n">
-        <v>0.7020241339042429</v>
+        <v>0.6186259244842351</v>
       </c>
       <c r="N3" s="11" t="n">
-        <v>0.7367991012154019</v>
+        <v>0.6639164490861619</v>
       </c>
       <c r="O3" s="11" t="n">
-        <v>0.7189913788807495</v>
+        <v>0.6404715127701375</v>
       </c>
       <c r="P3" s="11" t="n">
-        <v>0.9694363143631436</v>
+        <v>0.9613170731707317</v>
       </c>
       <c r="Q3" s="12" t="n">
-        <v>0.8436164153771375</v>
+        <v>0.8000777248465808</v>
       </c>
     </row>
     <row r="4">
@@ -886,49 +886,49 @@
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.04181667811896954</v>
+        <v>0.01771335228792324</v>
       </c>
       <c r="D6" s="11" t="n">
-        <v>0.9459673290827012</v>
+        <v>0.9244148593515138</v>
       </c>
       <c r="E6" s="11" t="n">
-        <v>0.08009283613201172</v>
+        <v>0.03476063207021567</v>
       </c>
       <c r="F6" s="11" t="n">
-        <v>0.4726599382880584</v>
+        <v>0.4599437093123591</v>
       </c>
       <c r="G6" s="12" t="n">
-        <v>0.51945465413724</v>
+        <v>0.5079751996708691</v>
       </c>
       <c r="H6" s="13" t="n">
-        <v>0.9373079877112135</v>
+        <v>0.9410725922822697</v>
       </c>
       <c r="I6" s="11" t="n">
-        <v>0.6020068201990003</v>
+        <v>0.5613579923399041</v>
       </c>
       <c r="J6" s="11" t="n">
-        <v>0.7331389243181556</v>
+        <v>0.7032319848341397</v>
       </c>
       <c r="K6" s="11" t="n">
-        <v>0.735098327994904</v>
+        <v>0.6916492358290679</v>
       </c>
       <c r="L6" s="12" t="n">
-        <v>0.7720456892602398</v>
+        <v>0.7372233932250005</v>
       </c>
       <c r="M6" s="11" t="n">
-        <v>0.776159130966512</v>
+        <v>0.6879428797525269</v>
       </c>
       <c r="N6" s="11" t="n">
-        <v>0.1312761983561577</v>
+        <v>0.127564138906212</v>
       </c>
       <c r="O6" s="11" t="n">
-        <v>0.2245696563495202</v>
+        <v>0.2152203207683586</v>
       </c>
       <c r="P6" s="11" t="n">
-        <v>0.6633943375001694</v>
+        <v>0.6849381751155404</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <v>0.7159987558443301</v>
+        <v>0.6863398602946282</v>
       </c>
     </row>
     <row r="7">
@@ -1057,49 +1057,49 @@
         </is>
       </c>
       <c r="C9" s="11" t="n">
-        <v>0.4049524876614065</v>
+        <v>0.5705256042942264</v>
       </c>
       <c r="D9" s="11" t="n">
-        <v>0.9280595619378563</v>
+        <v>0.9552610114192496</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.5638659131666079</v>
+        <v>0.7143867434488307</v>
       </c>
       <c r="F9" s="11" t="n">
-        <v>0.6678987755312864</v>
+        <v>0.758152094961697</v>
       </c>
       <c r="G9" s="12" t="n">
-        <v>0.6847671268131178</v>
+        <v>0.7701885818807379</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>0.9282527722545861</v>
+        <v>0.9475742530125618</v>
       </c>
       <c r="I9" s="11" t="n">
-        <v>0.6739058863917113</v>
+        <v>0.692308563629001</v>
       </c>
       <c r="J9" s="11" t="n">
-        <v>0.7808902119723109</v>
+        <v>0.800073960624149</v>
       </c>
       <c r="K9" s="11" t="n">
-        <v>0.7830659818508751</v>
+        <v>0.8027840279952352</v>
       </c>
       <c r="L9" s="12" t="n">
-        <v>0.8038538230552467</v>
+        <v>0.8235150889769958</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.9278331822302811</v>
+        <v>0.8477485645210033</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.254067294483706</v>
+        <v>0.3993678905482553</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.398903411896162</v>
+        <v>0.5429541957399038</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.8506490362110877</v>
+        <v>0.9237701239964231</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <v>0.8870635582594886</v>
+        <v>0.8879040958488409</v>
       </c>
     </row>
     <row r="10">
@@ -1228,49 +1228,49 @@
         </is>
       </c>
       <c r="C12" s="11" t="n">
-        <v>0.8015099121544706</v>
+        <v>0.8945101913700896</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>0.9281690316001542</v>
+        <v>0.8947023566564266</v>
       </c>
       <c r="E12" s="11" t="n">
-        <v>0.8602020411573856</v>
+        <v>0.8946062636937751</v>
       </c>
       <c r="F12" s="11" t="n">
-        <v>0.8751511782900255</v>
+        <v>0.8989948895304852</v>
       </c>
       <c r="G12" s="12" t="n">
-        <v>0.872214304425376</v>
+        <v>0.8988160361034697</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>0.9321983850268595</v>
+        <v>0.8973662990766714</v>
       </c>
       <c r="I12" s="11" t="n">
-        <v>0.8391024330402781</v>
+        <v>0.881007069107776</v>
       </c>
       <c r="J12" s="11" t="n">
-        <v>0.883203942519274</v>
+        <v>0.8891114399365353</v>
       </c>
       <c r="K12" s="11" t="n">
-        <v>0.8882747404879906</v>
+        <v>0.898567730447179</v>
       </c>
       <c r="L12" s="12" t="n">
-        <v>0.8920374924682558</v>
+        <v>0.898464808926982</v>
       </c>
       <c r="M12" s="11" t="n">
-        <v>0.8486070939260162</v>
+        <v>0.7703607855076876</v>
       </c>
       <c r="N12" s="11" t="n">
-        <v>0.6935182881313759</v>
+        <v>0.8783302959298793</v>
       </c>
       <c r="O12" s="11" t="n">
-        <v>0.7632641884028206</v>
+        <v>0.8208101861238393</v>
       </c>
       <c r="P12" s="11" t="n">
-        <v>0.9644068407211269</v>
+        <v>0.9772576386851735</v>
       </c>
       <c r="Q12" s="12" t="n">
-        <v>0.9107057460147223</v>
+        <v>0.8813110773632417</v>
       </c>
     </row>
     <row r="13">
@@ -1399,49 +1399,49 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.7772005909545823</v>
+        <v>0.8149454320163942</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8910988470575378</v>
+        <v>0.8333739460987377</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8302616841462173</v>
+        <v>0.824056671967616</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9105518740106779</v>
+        <v>0.9020470581922572</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8699960350736543</v>
+        <v>0.8755570279399411</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.970560737955249</v>
+        <v>0.9529428874161179</v>
       </c>
       <c r="I15" t="n">
-        <v>0.905664766779109</v>
+        <v>0.9077739075364154</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9369904227047083</v>
+        <v>0.9298101580158321</v>
       </c>
       <c r="K15" t="n">
-        <v>0.91571647036729</v>
+        <v>0.9071043382609395</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>0.8931666371031688</v>
+        <v>0.8882573067300557</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6942909760589319</v>
+        <v>0.5703499079189687</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8084923868754021</v>
+        <v>0.8851100314375536</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7470524125631626</v>
+        <v>0.6936947026542727</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9657526896144663</v>
+        <v>0.9633112440640679</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>0.8406853340853719</v>
+        <v>0.7822667995524006</v>
       </c>
     </row>
     <row r="16">
